--- a/prod.xlsx
+++ b/prod.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кирилл\Desktop\статья про потребление\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25BDE1-3E0D-4777-92A5-C0D2FFC1A38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC31DD9B-6672-4961-B3DD-2B458CEE8FDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2292" windowWidth="12156" windowHeight="8604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PCA" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>Alcoholic Beverages</t>
   </si>
@@ -55,6 +56,366 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>-4.956316</t>
+  </si>
+  <si>
+    <t>-4.900743</t>
+  </si>
+  <si>
+    <t>-4.855951</t>
+  </si>
+  <si>
+    <t>-4.827026</t>
+  </si>
+  <si>
+    <t>-4.737089</t>
+  </si>
+  <si>
+    <t>-4.700744</t>
+  </si>
+  <si>
+    <t>-4.584330</t>
+  </si>
+  <si>
+    <t>-4.496585</t>
+  </si>
+  <si>
+    <t>-4.362037</t>
+  </si>
+  <si>
+    <t>-4.189604</t>
+  </si>
+  <si>
+    <t>-4.191661</t>
+  </si>
+  <si>
+    <t>-3.975582</t>
+  </si>
+  <si>
+    <t>-3.966021</t>
+  </si>
+  <si>
+    <t>-3.943896</t>
+  </si>
+  <si>
+    <t>-3.820626</t>
+  </si>
+  <si>
+    <t>-3.845878</t>
+  </si>
+  <si>
+    <t>-3.736414</t>
+  </si>
+  <si>
+    <t>-3.673556</t>
+  </si>
+  <si>
+    <t>-3.624299</t>
+  </si>
+  <si>
+    <t>-3.564272</t>
+  </si>
+  <si>
+    <t>-3.331783</t>
+  </si>
+  <si>
+    <t>-3.372738</t>
+  </si>
+  <si>
+    <t>-3.282494</t>
+  </si>
+  <si>
+    <t>-3.181822</t>
+  </si>
+  <si>
+    <t>-3.137577</t>
+  </si>
+  <si>
+    <t>-2.875531</t>
+  </si>
+  <si>
+    <t>-2.836617</t>
+  </si>
+  <si>
+    <t>-2.847391</t>
+  </si>
+  <si>
+    <t>-2.788799</t>
+  </si>
+  <si>
+    <t>-2.744979</t>
+  </si>
+  <si>
+    <t>-2.344240</t>
+  </si>
+  <si>
+    <t>-2.076333</t>
+  </si>
+  <si>
+    <t>-2.161968</t>
+  </si>
+  <si>
+    <t>-2.040266</t>
+  </si>
+  <si>
+    <t>-2.163676</t>
+  </si>
+  <si>
+    <t>-2.162818</t>
+  </si>
+  <si>
+    <t>-2.006275</t>
+  </si>
+  <si>
+    <t>-2.223846</t>
+  </si>
+  <si>
+    <t>-1.986067</t>
+  </si>
+  <si>
+    <t>-1.650733</t>
+  </si>
+  <si>
+    <t>-1.548042</t>
+  </si>
+  <si>
+    <t>-1.439880</t>
+  </si>
+  <si>
+    <t>-1.387880</t>
+  </si>
+  <si>
+    <t>-1.308469</t>
+  </si>
+  <si>
+    <t>-1.010031</t>
+  </si>
+  <si>
+    <t>-0.606091</t>
+  </si>
+  <si>
+    <t>0.084101</t>
+  </si>
+  <si>
+    <t>0.178385</t>
+  </si>
+  <si>
+    <t>0.823376</t>
+  </si>
+  <si>
+    <t>0.759900</t>
+  </si>
+  <si>
+    <t>0.876867</t>
+  </si>
+  <si>
+    <t>1.001635</t>
+  </si>
+  <si>
+    <t>1.144318</t>
+  </si>
+  <si>
+    <t>1.270517</t>
+  </si>
+  <si>
+    <t>1.247115</t>
+  </si>
+  <si>
+    <t>1.110198</t>
+  </si>
+  <si>
+    <t>0.992240</t>
+  </si>
+  <si>
+    <t>1.328280</t>
+  </si>
+  <si>
+    <t>1.680285</t>
+  </si>
+  <si>
+    <t>1.807111</t>
+  </si>
+  <si>
+    <t>2.067040</t>
+  </si>
+  <si>
+    <t>2.177875</t>
+  </si>
+  <si>
+    <t>2.218313</t>
+  </si>
+  <si>
+    <t>2.091469</t>
+  </si>
+  <si>
+    <t>2.299342</t>
+  </si>
+  <si>
+    <t>2.228888</t>
+  </si>
+  <si>
+    <t>2.210428</t>
+  </si>
+  <si>
+    <t>2.071411</t>
+  </si>
+  <si>
+    <t>2.670302</t>
+  </si>
+  <si>
+    <t>2.642018</t>
+  </si>
+  <si>
+    <t>2.215434</t>
+  </si>
+  <si>
+    <t>2.386979</t>
+  </si>
+  <si>
+    <t>2.108385</t>
+  </si>
+  <si>
+    <t>2.099597</t>
+  </si>
+  <si>
+    <t>2.023779</t>
+  </si>
+  <si>
+    <t>2.079053</t>
+  </si>
+  <si>
+    <t>2.076364</t>
+  </si>
+  <si>
+    <t>2.183041</t>
+  </si>
+  <si>
+    <t>1.960637</t>
+  </si>
+  <si>
+    <t>1.951958</t>
+  </si>
+  <si>
+    <t>2.042749</t>
+  </si>
+  <si>
+    <t>2.153789</t>
+  </si>
+  <si>
+    <t>2.210056</t>
+  </si>
+  <si>
+    <t>2.270310</t>
+  </si>
+  <si>
+    <t>2.286224</t>
+  </si>
+  <si>
+    <t>2.379100</t>
+  </si>
+  <si>
+    <t>2.467924</t>
+  </si>
+  <si>
+    <t>2.408879</t>
+  </si>
+  <si>
+    <t>1.995860</t>
+  </si>
+  <si>
+    <t>1.990364</t>
+  </si>
+  <si>
+    <t>1.918886</t>
+  </si>
+  <si>
+    <t>2.079063</t>
+  </si>
+  <si>
+    <t>2.218099</t>
+  </si>
+  <si>
+    <t>2.345120</t>
+  </si>
+  <si>
+    <t>2.429645</t>
+  </si>
+  <si>
+    <t>2.856971</t>
+  </si>
+  <si>
+    <t>2.466501</t>
+  </si>
+  <si>
+    <t>2.520439</t>
+  </si>
+  <si>
+    <t>2.483337</t>
+  </si>
+  <si>
+    <t>2.306419</t>
+  </si>
+  <si>
+    <t>2.420244</t>
+  </si>
+  <si>
+    <t>2.491017</t>
+  </si>
+  <si>
+    <t>2.779208</t>
+  </si>
+  <si>
+    <t>2.902140</t>
+  </si>
+  <si>
+    <t>2.460130</t>
+  </si>
+  <si>
+    <t>2.403552</t>
+  </si>
+  <si>
+    <t>2.281639</t>
+  </si>
+  <si>
+    <t>2.311889</t>
+  </si>
+  <si>
+    <t>2.258649</t>
+  </si>
+  <si>
+    <t>2.196711</t>
+  </si>
+  <si>
+    <t>1.641901</t>
+  </si>
+  <si>
+    <t>0.792327</t>
+  </si>
+  <si>
+    <t>2.372677</t>
+  </si>
+  <si>
+    <t>1.966533</t>
+  </si>
+  <si>
+    <t>1.797687</t>
+  </si>
+  <si>
+    <t>1.740168</t>
+  </si>
+  <si>
+    <t>1.624576</t>
+  </si>
+  <si>
+    <t>1.517201</t>
+  </si>
+  <si>
+    <t>1.614354</t>
+  </si>
+  <si>
+    <t>РСА</t>
   </si>
 </sst>
 </file>
@@ -447,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H207"/>
     </sheetView>
   </sheetViews>
@@ -5844,4 +6205,982 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7677B7-4CB2-4242-BC82-117021731D5A}">
+  <dimension ref="A1:B120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="N2:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>40575</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>40664</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>40695</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>40756</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>40787</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>40848</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>40878</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>41395</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>41518</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>42705</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B113" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B115" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>